--- a/stahovanie/Mladež.turnaj. Kriváň 15.12.2018.xlsx
+++ b/stahovanie/Mladež.turnaj. Kriváň 15.12.2018.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="89">
   <si>
     <t xml:space="preserve">Starší žiaci</t>
   </si>
@@ -249,18 +249,12 @@
     <t xml:space="preserve">2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zvolen </t>
-  </si>
-  <si>
     <t xml:space="preserve">3.</t>
   </si>
   <si>
     <t xml:space="preserve">Németi Daniel</t>
   </si>
   <si>
-    <t xml:space="preserve">Krupina</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.</t>
   </si>
   <si>
@@ -288,25 +282,16 @@
     <t xml:space="preserve">Zvolen</t>
   </si>
   <si>
-    <t xml:space="preserve">Bohuš</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cekovec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Štepiga </t>
-  </si>
-  <si>
     <t xml:space="preserve">8.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mesiar</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mesiarová</t>
+    <t xml:space="preserve">Mesiar Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.</t>
   </si>
 </sst>
 </file>
@@ -320,7 +305,7 @@
     <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
     <numFmt numFmtId="168" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -472,6 +457,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -517,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -814,6 +806,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top/>
@@ -904,7 +903,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="131">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1101,10 +1100,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1133,10 +1128,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1153,10 +1144,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1181,30 +1168,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1361,23 +1324,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1397,19 +1364,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1421,42 +1384,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1474,6 +1409,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1569,7 +1508,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
@@ -3381,7 +3320,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
@@ -3415,36 +3354,36 @@
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="n">
+      <c r="A5" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="34"/>
@@ -3453,18 +3392,18 @@
       <c r="P5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="60"/>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
@@ -3473,26 +3412,26 @@
       <c r="P6" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="n">
+      <c r="A7" s="51" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="66"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
@@ -3501,18 +3440,18 @@
       <c r="P7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="68"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="65"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
@@ -3521,16 +3460,16 @@
       <c r="P8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="32"/>
       <c r="L9" s="33"/>
       <c r="M9" s="34"/>
@@ -3539,16 +3478,16 @@
       <c r="P9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
@@ -3557,16 +3496,16 @@
       <c r="P10" s="37"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="66"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="63"/>
       <c r="K11" s="34"/>
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
@@ -3575,16 +3514,16 @@
       <c r="P11" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="62"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="68"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="65"/>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
@@ -3631,14 +3570,14 @@
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="41"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
       <c r="M15" s="34"/>
@@ -3791,16 +3730,16 @@
       <c r="P23" s="34"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="76"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="36"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -4815,15 +4754,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:L1011"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K42" activeCellId="0" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="9.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.02"/>
@@ -4833,337 +4772,337 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="89" t="n">
+      <c r="D5" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="90" t="n">
+      <c r="E5" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="90" t="n">
+      <c r="F5" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="91" t="n">
+      <c r="G5" s="82" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="94" t="s">
+      <c r="L5" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="95" t="n">
+      <c r="A6" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="99" t="s">
+      <c r="H6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101" t="s">
+      <c r="J6" s="91"/>
+      <c r="K6" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="93" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="95"/>
-      <c r="B7" s="103" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="102"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="104" t="n">
+      <c r="A8" s="95" t="n">
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="99" t="s">
+      <c r="G8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="99" t="s">
+      <c r="H8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="99" t="s">
+      <c r="I8" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108" t="s">
+      <c r="J8" s="98"/>
+      <c r="K8" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="109" t="s">
+      <c r="L8" s="100" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="104"/>
-      <c r="B9" s="110" t="s">
+      <c r="A9" s="95"/>
+      <c r="B9" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="109"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="95" t="n">
+      <c r="A10" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="111" t="s">
+      <c r="C10" s="87"/>
+      <c r="D10" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="99" t="s">
+      <c r="I10" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="101" t="s">
+      <c r="J10" s="91"/>
+      <c r="K10" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="102" t="s">
+      <c r="L10" s="93" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="95"/>
-      <c r="B11" s="113" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="102"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108" t="s">
+      <c r="J12" s="98"/>
+      <c r="K12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="109" t="s">
+      <c r="L12" s="100" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="104"/>
-      <c r="B13" s="110" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="109"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="111" t="s">
+      <c r="C14" s="87"/>
+      <c r="D14" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="112" t="s">
+      <c r="H14" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="99" t="s">
+      <c r="I14" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="91"/>
+      <c r="K14" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="102" t="s">
+      <c r="L14" s="93" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="95"/>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="102"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="115"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="26" t="s">
         <v>14</v>
       </c>
@@ -5173,7 +5112,7 @@
       <c r="F16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="116" t="s">
+      <c r="G16" s="108" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="26" t="s">
@@ -5186,392 +5125,392 @@
       <c r="K16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="117" t="s">
+      <c r="L16" s="109" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="114"/>
-      <c r="B17" s="118" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="118"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="116"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="117"/>
+      <c r="L17" s="109"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="119"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="121" t="s">
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="120" t="s">
+      <c r="F19" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="120" t="s">
+      <c r="G19" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="120" t="s">
+      <c r="H19" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="120" t="s">
+      <c r="I19" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="120"/>
+      <c r="J19" s="112"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="119"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="119"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="119"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="89" t="n">
+      <c r="D23" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="90" t="n">
+      <c r="E23" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="90" t="n">
+      <c r="F23" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="91" t="n">
+      <c r="G23" s="82" t="n">
         <v>4</v>
       </c>
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="93" t="s">
+      <c r="I23" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="92" t="s">
+      <c r="J23" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="93" t="s">
+      <c r="K23" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="94" t="s">
+      <c r="L23" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="95" t="n">
+      <c r="A24" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97" t="s">
+      <c r="C24" s="87"/>
+      <c r="D24" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="98" t="s">
+      <c r="G24" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="98" t="s">
+      <c r="H24" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="98" t="s">
+      <c r="I24" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101" t="s">
+      <c r="J24" s="91"/>
+      <c r="K24" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="102" t="s">
+      <c r="L24" s="93" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="95"/>
-      <c r="B25" s="103" t="s">
+      <c r="A25" s="86"/>
+      <c r="B25" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="102"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="104" t="n">
+      <c r="A26" s="95" t="n">
         <v>2</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="105" t="s">
+      <c r="D26" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="106" t="s">
+      <c r="E26" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="98" t="s">
+      <c r="F26" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="99" t="s">
+      <c r="G26" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="99" t="s">
+      <c r="H26" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="99" t="s">
+      <c r="I26" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108" t="s">
+      <c r="J26" s="98"/>
+      <c r="K26" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="109" t="s">
+      <c r="L26" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="104"/>
-      <c r="B27" s="110" t="s">
+      <c r="A27" s="95"/>
+      <c r="B27" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="109"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="100"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="95" t="n">
+      <c r="A28" s="86" t="n">
         <v>3</v>
       </c>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="111" t="s">
+      <c r="C28" s="87"/>
+      <c r="D28" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="100" t="s">
+      <c r="E28" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="112" t="s">
+      <c r="F28" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="99" t="s">
+      <c r="G28" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="99" t="s">
+      <c r="H28" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="99" t="s">
+      <c r="I28" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101" t="s">
+      <c r="J28" s="91"/>
+      <c r="K28" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="102" t="s">
+      <c r="L28" s="93" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="95"/>
-      <c r="B29" s="113" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="102"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="105" t="s">
+      <c r="D30" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="106" t="s">
+      <c r="E30" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="98" t="s">
+      <c r="F30" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="G30" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="99" t="s">
+      <c r="H30" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="107"/>
-      <c r="K30" s="108" t="s">
+      <c r="J30" s="98"/>
+      <c r="K30" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="109" t="s">
+      <c r="L30" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="104"/>
-      <c r="B31" s="110" t="s">
+      <c r="A31" s="95"/>
+      <c r="B31" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="109"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="111" t="s">
+      <c r="C32" s="87"/>
+      <c r="D32" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="100" t="s">
+      <c r="E32" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="99" t="s">
+      <c r="G32" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="112" t="s">
+      <c r="H32" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="99" t="s">
+      <c r="I32" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="100"/>
-      <c r="K32" s="101" t="s">
+      <c r="J32" s="91"/>
+      <c r="K32" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="102" t="s">
+      <c r="L32" s="93" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="95"/>
-      <c r="B33" s="113" t="s">
+      <c r="A33" s="86"/>
+      <c r="B33" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="93"/>
     </row>
     <row r="34" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="115"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="26" t="s">
         <v>14</v>
       </c>
@@ -5581,7 +5520,7 @@
       <c r="F34" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="116" t="s">
+      <c r="G34" s="108" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="26" t="s">
@@ -5594,962 +5533,632 @@
       <c r="K34" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L34" s="117" t="s">
+      <c r="L34" s="109" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="114"/>
-      <c r="B35" s="118" t="s">
+      <c r="A35" s="106"/>
+      <c r="B35" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="118"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="116"/>
+      <c r="G35" s="108"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
       <c r="K35" s="25"/>
-      <c r="L35" s="117"/>
+      <c r="L35" s="109"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="119"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="123"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="119"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="121" t="s">
+      <c r="A37" s="111"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="120" t="s">
+      <c r="F37" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="120" t="s">
+      <c r="G37" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="120" t="s">
+      <c r="H37" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="120" t="s">
+      <c r="I37" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="120"/>
-      <c r="K37" s="123"/>
+      <c r="J37" s="112"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="70"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="123"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="70" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="70" t="s">
+      <c r="F39" s="30"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="J39" s="70"/>
-      <c r="K39" s="71"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="62"/>
-      <c r="B40" s="124" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="124" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="124" t="s">
+      <c r="G40" s="37"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="71"/>
+      <c r="K40" s="37"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="69"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="124" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="124" t="s">
+      <c r="D41" s="34"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="57"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="124" t="s">
+      <c r="H41" s="34"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="115" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="62"/>
-      <c r="B42" s="126" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="126" t="s">
+      <c r="C42" s="118"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="127"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="126" t="s">
+      <c r="G42" s="118"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="K42" s="127"/>
+      <c r="K42" s="118"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="69"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="123"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="119"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="70" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="71"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="37"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="62"/>
-      <c r="B45" s="124" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="124" t="s">
+      <c r="C45" s="37"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="71"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="71"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="69"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="124" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="129"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="124" t="s">
+      <c r="D46" s="113"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="130"/>
-      <c r="I46" s="69"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="38"/>
-      <c r="K46" s="74"/>
+      <c r="K46" s="36"/>
     </row>
     <row r="47" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="62"/>
-      <c r="B47" s="126" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="127"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="126" t="s">
+      <c r="C47" s="118"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="127"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="127"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="118"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="131"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="123"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="72"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="123"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="123"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="62"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="123"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="69"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="123"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="62"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="123"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="69"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="123"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="62"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="123"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="69"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="123"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="62"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="123"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="131"/>
-      <c r="B58" s="130"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="130"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="123"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="112"/>
+      <c r="G58" s="112"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="112"/>
+      <c r="J58" s="112"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="131"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="131"/>
-      <c r="K59" s="123"/>
-      <c r="L59" s="123"/>
-      <c r="M59" s="123"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="123"/>
-      <c r="B60" s="123"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="123"/>
-      <c r="G60" s="123"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="123"/>
-      <c r="J60" s="123"/>
-      <c r="K60" s="123"/>
-      <c r="L60" s="123"/>
-      <c r="M60" s="123"/>
-    </row>
+      <c r="A59" s="111"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="111"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="72"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="123"/>
-      <c r="L61" s="123"/>
-      <c r="M61" s="123"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="69"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="138"/>
-      <c r="G62" s="138"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="123"/>
-      <c r="L62" s="123"/>
-      <c r="M62" s="123"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="71"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="139"/>
-      <c r="F63" s="139"/>
-      <c r="G63" s="139"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="123"/>
-      <c r="L63" s="123"/>
-      <c r="M63" s="123"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="69"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="138"/>
-      <c r="G64" s="138"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="123"/>
-      <c r="L64" s="123"/>
-      <c r="M64" s="123"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="71"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="139"/>
-      <c r="G65" s="139"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="123"/>
-      <c r="L65" s="123"/>
-      <c r="M65" s="123"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="69"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="138"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="123"/>
-      <c r="L66" s="123"/>
-      <c r="M66" s="123"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="71"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="139"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="123"/>
-      <c r="L67" s="123"/>
-      <c r="M67" s="123"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="123"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="69"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="123"/>
-      <c r="L68" s="123"/>
-      <c r="M68" s="123"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="71"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="123"/>
-      <c r="L69" s="123"/>
-      <c r="M69" s="123"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="131"/>
-      <c r="B70" s="130"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="129"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="130"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="123"/>
-      <c r="L70" s="123"/>
-      <c r="M70" s="123"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="123"/>
-      <c r="B71" s="123"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
-      <c r="G71" s="123"/>
-      <c r="H71" s="123"/>
-      <c r="I71" s="123"/>
-      <c r="J71" s="123"/>
-      <c r="K71" s="123"/>
-      <c r="L71" s="123"/>
-      <c r="M71" s="123"/>
-    </row>
+      <c r="A70" s="111"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="112"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="112"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="72"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="136"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="137"/>
-      <c r="H72" s="135"/>
-      <c r="I72" s="137"/>
-      <c r="J72" s="137"/>
-      <c r="K72" s="123"/>
-      <c r="L72" s="123"/>
-      <c r="M72" s="123"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="121"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="69"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="138"/>
-      <c r="F73" s="138"/>
-      <c r="G73" s="138"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="123"/>
-      <c r="L73" s="123"/>
-      <c r="M73" s="123"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="71"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="139"/>
-      <c r="F74" s="139"/>
-      <c r="G74" s="139"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="123"/>
-      <c r="L74" s="123"/>
-      <c r="M74" s="123"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="123"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="69"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="138"/>
-      <c r="G75" s="138"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="57"/>
-      <c r="K75" s="123"/>
-      <c r="L75" s="123"/>
-      <c r="M75" s="123"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="122"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="71"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="139"/>
-      <c r="G76" s="139"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="123"/>
-      <c r="L76" s="123"/>
-      <c r="M76" s="123"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="123"/>
+      <c r="G76" s="123"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="69"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="138"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="57"/>
-      <c r="K77" s="123"/>
-      <c r="L77" s="123"/>
-      <c r="M77" s="123"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="122"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="71"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="139"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="123"/>
-      <c r="L78" s="123"/>
-      <c r="M78" s="123"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="69"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="123"/>
-      <c r="L79" s="123"/>
-      <c r="M79" s="123"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="71"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="123"/>
-      <c r="L80" s="123"/>
-      <c r="M80" s="123"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="131"/>
-      <c r="B81" s="130"/>
-      <c r="C81" s="130"/>
-      <c r="D81" s="129"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="130"/>
-      <c r="G81" s="130"/>
-      <c r="H81" s="130"/>
-      <c r="I81" s="130"/>
-      <c r="J81" s="130"/>
-      <c r="K81" s="123"/>
-      <c r="L81" s="123"/>
-      <c r="M81" s="123"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="123"/>
-      <c r="B82" s="123"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="123"/>
-      <c r="E82" s="123"/>
-      <c r="F82" s="123"/>
-      <c r="G82" s="123"/>
-      <c r="H82" s="123"/>
-      <c r="I82" s="123"/>
-      <c r="J82" s="123"/>
-      <c r="K82" s="123"/>
-      <c r="L82" s="123"/>
-      <c r="M82" s="123"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="123"/>
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
-      <c r="F83" s="123"/>
-      <c r="G83" s="123"/>
-      <c r="H83" s="123"/>
-      <c r="I83" s="123"/>
-      <c r="J83" s="123"/>
-      <c r="K83" s="123"/>
-      <c r="L83" s="123"/>
-      <c r="M83" s="123"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="123"/>
-      <c r="B84" s="123"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="123"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="123"/>
-      <c r="G84" s="123"/>
-      <c r="H84" s="123"/>
-      <c r="I84" s="123"/>
-      <c r="J84" s="123"/>
-      <c r="K84" s="123"/>
-      <c r="L84" s="123"/>
-      <c r="M84" s="123"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="123"/>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
-      <c r="G85" s="123"/>
-      <c r="H85" s="123"/>
-      <c r="I85" s="123"/>
-      <c r="J85" s="123"/>
-      <c r="K85" s="123"/>
-      <c r="L85" s="123"/>
-      <c r="M85" s="123"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="123"/>
-      <c r="B86" s="123"/>
-      <c r="C86" s="123"/>
-      <c r="D86" s="123"/>
-      <c r="E86" s="123"/>
-      <c r="F86" s="123"/>
-      <c r="G86" s="123"/>
-      <c r="H86" s="123"/>
-      <c r="I86" s="123"/>
-      <c r="J86" s="123"/>
-      <c r="K86" s="123"/>
-      <c r="L86" s="123"/>
-      <c r="M86" s="123"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="123"/>
-      <c r="B87" s="123"/>
-      <c r="C87" s="123"/>
-      <c r="D87" s="123"/>
-      <c r="E87" s="123"/>
-      <c r="F87" s="123"/>
-      <c r="G87" s="123"/>
-      <c r="H87" s="123"/>
-      <c r="I87" s="123"/>
-      <c r="J87" s="123"/>
-      <c r="K87" s="123"/>
-      <c r="L87" s="123"/>
-      <c r="M87" s="123"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="123"/>
-      <c r="B88" s="123"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="123"/>
-      <c r="H88" s="123"/>
-      <c r="I88" s="123"/>
-      <c r="J88" s="123"/>
-      <c r="K88" s="123"/>
-      <c r="L88" s="123"/>
-      <c r="M88" s="123"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="123"/>
-      <c r="B89" s="123"/>
-      <c r="C89" s="123"/>
-      <c r="D89" s="123"/>
-      <c r="E89" s="123"/>
-      <c r="F89" s="123"/>
-      <c r="G89" s="123"/>
-      <c r="H89" s="123"/>
-      <c r="I89" s="123"/>
-      <c r="J89" s="123"/>
-      <c r="K89" s="123"/>
-      <c r="L89" s="123"/>
-      <c r="M89" s="123"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="123"/>
-      <c r="B90" s="123"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
-      <c r="E90" s="123"/>
-      <c r="F90" s="123"/>
-      <c r="G90" s="123"/>
-      <c r="H90" s="123"/>
-      <c r="I90" s="123"/>
-      <c r="J90" s="123"/>
-      <c r="K90" s="123"/>
-      <c r="L90" s="123"/>
-      <c r="M90" s="123"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="123"/>
-      <c r="B91" s="123"/>
-      <c r="C91" s="123"/>
-      <c r="D91" s="123"/>
-      <c r="E91" s="123"/>
-      <c r="F91" s="123"/>
-      <c r="G91" s="123"/>
-      <c r="H91" s="123"/>
-      <c r="I91" s="123"/>
-      <c r="J91" s="123"/>
-      <c r="K91" s="123"/>
-      <c r="L91" s="123"/>
-      <c r="M91" s="123"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="123"/>
-      <c r="B92" s="123"/>
-      <c r="C92" s="123"/>
-      <c r="D92" s="123"/>
-      <c r="E92" s="123"/>
-      <c r="F92" s="123"/>
-      <c r="G92" s="123"/>
-      <c r="H92" s="123"/>
-      <c r="I92" s="123"/>
-      <c r="J92" s="123"/>
-      <c r="K92" s="123"/>
-      <c r="L92" s="123"/>
-      <c r="M92" s="123"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="123"/>
-      <c r="B93" s="123"/>
-      <c r="C93" s="123"/>
-      <c r="D93" s="123"/>
-      <c r="E93" s="123"/>
-      <c r="F93" s="123"/>
-      <c r="G93" s="123"/>
-      <c r="H93" s="123"/>
-      <c r="I93" s="123"/>
-      <c r="J93" s="123"/>
-      <c r="K93" s="123"/>
-      <c r="L93" s="123"/>
-      <c r="M93" s="123"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="123"/>
-      <c r="B94" s="123"/>
-      <c r="C94" s="123"/>
-      <c r="D94" s="123"/>
-      <c r="E94" s="123"/>
-      <c r="F94" s="123"/>
-      <c r="G94" s="123"/>
-      <c r="H94" s="123"/>
-      <c r="I94" s="123"/>
-      <c r="J94" s="123"/>
-      <c r="K94" s="123"/>
-      <c r="L94" s="123"/>
-      <c r="M94" s="123"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="123"/>
-      <c r="B95" s="123"/>
-      <c r="C95" s="123"/>
-      <c r="D95" s="123"/>
-      <c r="E95" s="123"/>
-      <c r="F95" s="123"/>
-      <c r="G95" s="123"/>
-      <c r="H95" s="123"/>
-      <c r="I95" s="123"/>
-      <c r="J95" s="123"/>
-      <c r="K95" s="123"/>
-      <c r="L95" s="123"/>
-      <c r="M95" s="123"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="123"/>
-      <c r="B96" s="123"/>
-      <c r="C96" s="123"/>
-      <c r="D96" s="123"/>
-      <c r="E96" s="123"/>
-      <c r="F96" s="123"/>
-      <c r="G96" s="123"/>
-      <c r="H96" s="123"/>
-      <c r="I96" s="123"/>
-      <c r="J96" s="123"/>
-      <c r="K96" s="123"/>
-      <c r="L96" s="123"/>
-      <c r="M96" s="123"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="123"/>
-      <c r="B97" s="123"/>
-      <c r="C97" s="123"/>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="123"/>
-      <c r="H97" s="123"/>
-      <c r="I97" s="123"/>
-      <c r="J97" s="123"/>
-      <c r="K97" s="123"/>
-      <c r="L97" s="123"/>
-      <c r="M97" s="123"/>
-    </row>
+      <c r="A81" s="111"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="112"/>
+      <c r="G81" s="112"/>
+      <c r="H81" s="112"/>
+      <c r="I81" s="112"/>
+      <c r="J81" s="112"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7630,10 +7239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7651,130 +7260,130 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140" t="s">
+      <c r="A4" s="124"/>
+      <c r="B4" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="124" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="126" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="125" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="141" t="s">
+      <c r="B7" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="C7" s="127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="B8" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="125" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="141" t="s">
+      <c r="B9" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="142" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="142" t="s">
+      <c r="B10" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="127" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="141" t="s">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="142" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="142" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="141" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="142" t="s">
-        <v>26</v>
+      <c r="C11" s="126" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="143"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="143"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="145"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="143"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="143"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="143"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="143"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="143"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8773,7 +8382,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -8781,56 +8390,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="124" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="126" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="126" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="143"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8862,16 +8471,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8880,114 +8490,124 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="124" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="126" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="126" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="141" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="142" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="142" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="125" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="142" t="s">
+      <c r="B11" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="125" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="141" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="142" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="142" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="141" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="142" t="s">
+      <c r="B12" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="142" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="142" t="s">
+      <c r="C12" s="126" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="142" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="141" t="s">
+      <c r="B13" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="142" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="142" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="141" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="142" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/stahovanie/Mladež.turnaj. Kriváň 15.12.2018.xlsx
+++ b/stahovanie/Mladež.turnaj. Kriváň 15.12.2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="St.žiaci skupina" sheetId="1" state="visible" r:id="rId2"/>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7241,8 +7241,8 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7328,7 +7328,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="126" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C10" s="127" t="s">
         <v>17</v>
@@ -8473,8 +8473,8 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
